--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.80525333333333</v>
+        <v>13.40979833333333</v>
       </c>
       <c r="H2">
-        <v>38.41576000000001</v>
+        <v>40.229395</v>
       </c>
       <c r="I2">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994065</v>
       </c>
       <c r="J2">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994064</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>83.76902266666666</v>
+        <v>93.78975666666668</v>
       </c>
       <c r="N2">
-        <v>251.307068</v>
+        <v>281.36927</v>
       </c>
       <c r="O2">
-        <v>0.9980041114547904</v>
+        <v>0.997863063099077</v>
       </c>
       <c r="P2">
-        <v>0.9980041114547905</v>
+        <v>0.9978630630990771</v>
       </c>
       <c r="Q2">
-        <v>1072.683556732409</v>
+        <v>1257.701722632406</v>
       </c>
       <c r="R2">
-        <v>9654.152010591681</v>
+        <v>11319.31550369165</v>
       </c>
       <c r="S2">
-        <v>0.5771922283905685</v>
+        <v>0.6853731845917548</v>
       </c>
       <c r="T2">
-        <v>0.5771922283905686</v>
+        <v>0.6853731845917548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.80525333333333</v>
+        <v>13.40979833333333</v>
       </c>
       <c r="H3">
-        <v>38.41576000000001</v>
+        <v>40.229395</v>
       </c>
       <c r="I3">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994065</v>
       </c>
       <c r="J3">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994064</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.03186166666666667</v>
+        <v>0.09680433333333333</v>
       </c>
       <c r="N3">
-        <v>0.095585</v>
+        <v>0.290413</v>
       </c>
       <c r="O3">
-        <v>0.0003795922802832038</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="P3">
-        <v>0.0003795922802832039</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="Q3">
-        <v>0.407996713288889</v>
+        <v>1.298126587792778</v>
       </c>
       <c r="R3">
-        <v>3.6719704196</v>
+        <v>11.683139290135</v>
       </c>
       <c r="S3">
-        <v>0.0002195358832912431</v>
+        <v>0.0007074023494351222</v>
       </c>
       <c r="T3">
-        <v>0.0002195358832912432</v>
+        <v>0.0007074023494351222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.80525333333333</v>
+        <v>13.40979833333333</v>
       </c>
       <c r="H4">
-        <v>38.41576000000001</v>
+        <v>40.229395</v>
       </c>
       <c r="I4">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994065</v>
       </c>
       <c r="J4">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994064</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07487966666666666</v>
+        <v>0.05343666666666667</v>
       </c>
       <c r="N4">
-        <v>0.224639</v>
+        <v>0.16031</v>
       </c>
       <c r="O4">
-        <v>0.0008920984490300634</v>
+        <v>0.0005685319780849309</v>
       </c>
       <c r="P4">
-        <v>0.0008920984490300636</v>
+        <v>0.000568531978084931</v>
       </c>
       <c r="Q4">
-        <v>0.9588531011822223</v>
+        <v>0.7165749236055555</v>
       </c>
       <c r="R4">
-        <v>8.629677910640002</v>
+        <v>6.449174312449999</v>
       </c>
       <c r="S4">
-        <v>0.0005159420545761528</v>
+        <v>0.0003904910270474959</v>
       </c>
       <c r="T4">
-        <v>0.0005159420545761529</v>
+        <v>0.0003904910270474959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.80525333333333</v>
+        <v>13.40979833333333</v>
       </c>
       <c r="H5">
-        <v>38.41576000000001</v>
+        <v>40.229395</v>
       </c>
       <c r="I5">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994065</v>
       </c>
       <c r="J5">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994064</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06078666666666666</v>
+        <v>0.050611</v>
       </c>
       <c r="N5">
-        <v>0.18236</v>
+        <v>0.151833</v>
       </c>
       <c r="O5">
-        <v>0.0007241978158962707</v>
+        <v>0.0005384686908400556</v>
       </c>
       <c r="P5">
-        <v>0.0007241978158962709</v>
+        <v>0.0005384686908400557</v>
       </c>
       <c r="Q5">
-        <v>0.7783886659555556</v>
+        <v>0.6786833034483333</v>
       </c>
       <c r="R5">
-        <v>7.005497993600001</v>
+        <v>6.108149731035</v>
       </c>
       <c r="S5">
-        <v>0.0004188373037295715</v>
+        <v>0.0003698423311690004</v>
       </c>
       <c r="T5">
-        <v>0.0004188373037295716</v>
+        <v>0.0003698423311690004</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>3.426581</v>
       </c>
       <c r="I6">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256769</v>
       </c>
       <c r="J6">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256768</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.76902266666666</v>
+        <v>93.78975666666668</v>
       </c>
       <c r="N6">
-        <v>251.307068</v>
+        <v>281.36927</v>
       </c>
       <c r="O6">
-        <v>0.9980041114547904</v>
+        <v>0.997863063099077</v>
       </c>
       <c r="P6">
-        <v>0.9980041114547905</v>
+        <v>0.9978630630990771</v>
       </c>
       <c r="Q6">
-        <v>95.68044715272309</v>
+        <v>107.1260660628744</v>
       </c>
       <c r="R6">
-        <v>861.1240243745078</v>
+        <v>964.13459456587</v>
       </c>
       <c r="S6">
-        <v>0.05148397228509295</v>
+        <v>0.05837738132108623</v>
       </c>
       <c r="T6">
-        <v>0.05148397228509295</v>
+        <v>0.05837738132108622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.426581</v>
       </c>
       <c r="I7">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256769</v>
       </c>
       <c r="J7">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256768</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03186166666666667</v>
+        <v>0.09680433333333333</v>
       </c>
       <c r="N7">
-        <v>0.095585</v>
+        <v>0.290413</v>
       </c>
       <c r="O7">
-        <v>0.0003795922802832038</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="P7">
-        <v>0.0003795922802832039</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="Q7">
-        <v>0.03639219387611111</v>
+        <v>0.1105692964392222</v>
       </c>
       <c r="R7">
-        <v>0.327529744885</v>
+        <v>0.9951236679529998</v>
       </c>
       <c r="S7">
-        <v>1.958200193108222E-05</v>
+        <v>6.02537385891523E-05</v>
       </c>
       <c r="T7">
-        <v>1.958200193108222E-05</v>
+        <v>6.02537385891523E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,40 +918,40 @@
         <v>3.426581</v>
       </c>
       <c r="I8">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256769</v>
       </c>
       <c r="J8">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256768</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07487966666666666</v>
+        <v>0.05343666666666667</v>
       </c>
       <c r="N8">
-        <v>0.224639</v>
+        <v>0.16031</v>
       </c>
       <c r="O8">
-        <v>0.0008920984490300634</v>
+        <v>0.0005685319780849309</v>
       </c>
       <c r="P8">
-        <v>0.0008920984490300636</v>
+        <v>0.000568531978084931</v>
       </c>
       <c r="Q8">
-        <v>0.08552708102877776</v>
+        <v>0.06103502223444444</v>
       </c>
       <c r="R8">
-        <v>0.7697437292589999</v>
+        <v>0.54931520011</v>
       </c>
       <c r="S8">
-        <v>4.602062386144664E-05</v>
+        <v>3.326048363271274E-05</v>
       </c>
       <c r="T8">
-        <v>4.602062386144666E-05</v>
+        <v>3.326048363271274E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>3.426581</v>
       </c>
       <c r="I9">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256769</v>
       </c>
       <c r="J9">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06078666666666666</v>
+        <v>0.050611</v>
       </c>
       <c r="N9">
-        <v>0.18236</v>
+        <v>0.151833</v>
       </c>
       <c r="O9">
-        <v>0.0007241978158962707</v>
+        <v>0.0005384686908400556</v>
       </c>
       <c r="P9">
-        <v>0.0007241978158962709</v>
+        <v>0.0005384686908400557</v>
       </c>
       <c r="Q9">
-        <v>0.06943014568444443</v>
+        <v>0.05780756366366666</v>
       </c>
       <c r="R9">
-        <v>0.6248713111599999</v>
+        <v>0.5202680729729999</v>
       </c>
       <c r="S9">
-        <v>3.735914497203696E-05</v>
+        <v>3.150170925959499E-05</v>
       </c>
       <c r="T9">
-        <v>3.735914497203696E-05</v>
+        <v>3.150170925959499E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.048356666666667</v>
+        <v>2.395418333333333</v>
       </c>
       <c r="H10">
-        <v>12.14507</v>
+        <v>7.186254999999999</v>
       </c>
       <c r="I10">
-        <v>0.1828431679256301</v>
+        <v>0.1226917282177923</v>
       </c>
       <c r="J10">
-        <v>0.1828431679256301</v>
+        <v>0.1226917282177922</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>83.76902266666666</v>
+        <v>93.78975666666668</v>
       </c>
       <c r="N10">
-        <v>251.307068</v>
+        <v>281.36927</v>
       </c>
       <c r="O10">
-        <v>0.9980041114547904</v>
+        <v>0.997863063099077</v>
       </c>
       <c r="P10">
-        <v>0.9980041114547905</v>
+        <v>0.9978630630990771</v>
       </c>
       <c r="Q10">
-        <v>339.1268813727511</v>
+        <v>224.6657025982056</v>
       </c>
       <c r="R10">
-        <v>3052.14193235476</v>
+        <v>2021.99132338385</v>
       </c>
       <c r="S10">
-        <v>0.1824782333411975</v>
+        <v>0.1224295437363257</v>
       </c>
       <c r="T10">
-        <v>0.1824782333411975</v>
+        <v>0.1224295437363256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.048356666666667</v>
+        <v>2.395418333333333</v>
       </c>
       <c r="H11">
-        <v>12.14507</v>
+        <v>7.186254999999999</v>
       </c>
       <c r="I11">
-        <v>0.1828431679256301</v>
+        <v>0.1226917282177923</v>
       </c>
       <c r="J11">
-        <v>0.1828431679256301</v>
+        <v>0.1226917282177922</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.03186166666666667</v>
+        <v>0.09680433333333333</v>
       </c>
       <c r="N11">
-        <v>0.095585</v>
+        <v>0.290413</v>
       </c>
       <c r="O11">
-        <v>0.0003795922802832038</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="P11">
-        <v>0.0003795922802832039</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="Q11">
-        <v>0.1289873906611111</v>
+        <v>0.2318868748127778</v>
       </c>
       <c r="R11">
-        <v>1.16088651595</v>
+        <v>2.086981873315</v>
       </c>
       <c r="S11">
-        <v>6.940585504709468E-05</v>
+        <v>0.0001263646562579401</v>
       </c>
       <c r="T11">
-        <v>6.94058550470947E-05</v>
+        <v>0.0001263646562579401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.048356666666667</v>
+        <v>2.395418333333333</v>
       </c>
       <c r="H12">
-        <v>12.14507</v>
+        <v>7.186254999999999</v>
       </c>
       <c r="I12">
-        <v>0.1828431679256301</v>
+        <v>0.1226917282177923</v>
       </c>
       <c r="J12">
-        <v>0.1828431679256301</v>
+        <v>0.1226917282177922</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07487966666666666</v>
+        <v>0.05343666666666667</v>
       </c>
       <c r="N12">
-        <v>0.224639</v>
+        <v>0.16031</v>
       </c>
       <c r="O12">
-        <v>0.0008920984490300634</v>
+        <v>0.0005685319780849309</v>
       </c>
       <c r="P12">
-        <v>0.0008920984490300636</v>
+        <v>0.000568531978084931</v>
       </c>
       <c r="Q12">
-        <v>0.3031395977477778</v>
+        <v>0.1280031710055556</v>
       </c>
       <c r="R12">
-        <v>2.72825637973</v>
+        <v>1.15202853905</v>
       </c>
       <c r="S12">
-        <v>0.0001631141065221981</v>
+        <v>6.975417093832018E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001631141065221981</v>
+        <v>6.975417093832018E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.048356666666667</v>
+        <v>2.395418333333333</v>
       </c>
       <c r="H13">
-        <v>12.14507</v>
+        <v>7.186254999999999</v>
       </c>
       <c r="I13">
-        <v>0.1828431679256301</v>
+        <v>0.1226917282177923</v>
       </c>
       <c r="J13">
-        <v>0.1828431679256301</v>
+        <v>0.1226917282177922</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.06078666666666666</v>
+        <v>0.050611</v>
       </c>
       <c r="N13">
-        <v>0.18236</v>
+        <v>0.151833</v>
       </c>
       <c r="O13">
-        <v>0.0007241978158962707</v>
+        <v>0.0005384686908400556</v>
       </c>
       <c r="P13">
-        <v>0.0007241978158962709</v>
+        <v>0.0005384686908400557</v>
       </c>
       <c r="Q13">
-        <v>0.2460861072444444</v>
+        <v>0.1212345172683333</v>
       </c>
       <c r="R13">
-        <v>2.2147749652</v>
+        <v>1.091110655415</v>
       </c>
       <c r="S13">
-        <v>0.0001324146228632964</v>
+        <v>6.606565427033851E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001324146228632964</v>
+        <v>6.606565427033851E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.909376</v>
+        <v>1.306961666666667</v>
       </c>
       <c r="H14">
-        <v>5.728128</v>
+        <v>3.920885</v>
       </c>
       <c r="I14">
-        <v>0.0862365609917031</v>
+        <v>0.06694170423860808</v>
       </c>
       <c r="J14">
-        <v>0.0862365609917031</v>
+        <v>0.06694170423860807</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>83.76902266666666</v>
+        <v>93.78975666666668</v>
       </c>
       <c r="N14">
-        <v>251.307068</v>
+        <v>281.36927</v>
       </c>
       <c r="O14">
-        <v>0.9980041114547904</v>
+        <v>0.997863063099077</v>
       </c>
       <c r="P14">
-        <v>0.9980041114547905</v>
+        <v>0.9978630630990771</v>
       </c>
       <c r="Q14">
-        <v>159.9465614231893</v>
+        <v>122.5796166893278</v>
       </c>
       <c r="R14">
-        <v>1439.519052808704</v>
+        <v>1103.21655020395</v>
       </c>
       <c r="S14">
-        <v>0.08606444242744149</v>
+        <v>0.06679865404060993</v>
       </c>
       <c r="T14">
-        <v>0.0860644424274415</v>
+        <v>0.06679865404060992</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.909376</v>
+        <v>1.306961666666667</v>
       </c>
       <c r="H15">
-        <v>5.728128</v>
+        <v>3.920885</v>
       </c>
       <c r="I15">
-        <v>0.0862365609917031</v>
+        <v>0.06694170423860808</v>
       </c>
       <c r="J15">
-        <v>0.0862365609917031</v>
+        <v>0.06694170423860807</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.03186166666666667</v>
+        <v>0.09680433333333333</v>
       </c>
       <c r="N15">
-        <v>0.095585</v>
+        <v>0.290413</v>
       </c>
       <c r="O15">
-        <v>0.0003795922802832038</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="P15">
-        <v>0.0003795922802832039</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="Q15">
-        <v>0.06083590165333334</v>
+        <v>0.1265195528338889</v>
       </c>
       <c r="R15">
-        <v>0.5475231148800001</v>
+        <v>1.138675975505</v>
       </c>
       <c r="S15">
-        <v>3.273473283062216E-05</v>
+        <v>6.894568662702806E-05</v>
       </c>
       <c r="T15">
-        <v>3.273473283062217E-05</v>
+        <v>6.894568662702806E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.909376</v>
+        <v>1.306961666666667</v>
       </c>
       <c r="H16">
-        <v>5.728128</v>
+        <v>3.920885</v>
       </c>
       <c r="I16">
-        <v>0.0862365609917031</v>
+        <v>0.06694170423860808</v>
       </c>
       <c r="J16">
-        <v>0.0862365609917031</v>
+        <v>0.06694170423860807</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.07487966666666666</v>
+        <v>0.05343666666666667</v>
       </c>
       <c r="N16">
-        <v>0.224639</v>
+        <v>0.16031</v>
       </c>
       <c r="O16">
-        <v>0.0008920984490300634</v>
+        <v>0.0005685319780849309</v>
       </c>
       <c r="P16">
-        <v>0.0008920984490300636</v>
+        <v>0.000568531978084931</v>
       </c>
       <c r="Q16">
-        <v>0.1429734384213333</v>
+        <v>0.06983967492777779</v>
       </c>
       <c r="R16">
-        <v>1.286760945792</v>
+        <v>0.6285570743500001</v>
       </c>
       <c r="S16">
-        <v>7.69315023103848E-05</v>
+        <v>3.805849952715225E-05</v>
       </c>
       <c r="T16">
-        <v>7.693150231038481E-05</v>
+        <v>3.805849952715225E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.909376</v>
+        <v>1.306961666666667</v>
       </c>
       <c r="H17">
-        <v>5.728128</v>
+        <v>3.920885</v>
       </c>
       <c r="I17">
-        <v>0.0862365609917031</v>
+        <v>0.06694170423860808</v>
       </c>
       <c r="J17">
-        <v>0.0862365609917031</v>
+        <v>0.06694170423860807</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.06078666666666666</v>
+        <v>0.050611</v>
       </c>
       <c r="N17">
-        <v>0.18236</v>
+        <v>0.151833</v>
       </c>
       <c r="O17">
-        <v>0.0007241978158962707</v>
+        <v>0.0005384686908400556</v>
       </c>
       <c r="P17">
-        <v>0.0007241978158962709</v>
+        <v>0.0005384686908400557</v>
       </c>
       <c r="Q17">
-        <v>0.1160646024533333</v>
+        <v>0.06614663691166667</v>
       </c>
       <c r="R17">
-        <v>1.04458142208</v>
+        <v>0.595319732205</v>
       </c>
       <c r="S17">
-        <v>6.245232912059692E-05</v>
+        <v>3.604601184396549E-05</v>
       </c>
       <c r="T17">
-        <v>6.245232912059694E-05</v>
+        <v>3.604601184396549E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.235963</v>
+        <v>1.269506</v>
       </c>
       <c r="H18">
-        <v>6.707889</v>
+        <v>3.808518</v>
       </c>
       <c r="I18">
-        <v>0.1009867933946438</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="J18">
-        <v>0.1009867933946438</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>83.76902266666666</v>
+        <v>93.78975666666668</v>
       </c>
       <c r="N18">
-        <v>251.307068</v>
+        <v>281.36927</v>
       </c>
       <c r="O18">
-        <v>0.9980041114547904</v>
+        <v>0.997863063099077</v>
       </c>
       <c r="P18">
-        <v>0.9980041114547905</v>
+        <v>0.9978630630990771</v>
       </c>
       <c r="Q18">
-        <v>187.304435228828</v>
+        <v>119.0666588268734</v>
       </c>
       <c r="R18">
-        <v>1685.739917059452</v>
+        <v>1071.59992944186</v>
       </c>
       <c r="S18">
-        <v>0.10078523501049</v>
+        <v>0.0648842994093006</v>
       </c>
       <c r="T18">
-        <v>0.10078523501049</v>
+        <v>0.06488429940930061</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.235963</v>
+        <v>1.269506</v>
       </c>
       <c r="H19">
-        <v>6.707889</v>
+        <v>3.808518</v>
       </c>
       <c r="I19">
-        <v>0.1009867933946438</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="J19">
-        <v>0.1009867933946438</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.03186166666666667</v>
+        <v>0.09680433333333333</v>
       </c>
       <c r="N19">
-        <v>0.095585</v>
+        <v>0.290413</v>
       </c>
       <c r="O19">
-        <v>0.0003795922802832038</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="P19">
-        <v>0.0003795922802832039</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="Q19">
-        <v>0.07124150778500001</v>
+        <v>0.1228936819926667</v>
       </c>
       <c r="R19">
-        <v>0.641173570065</v>
+        <v>1.106043137934</v>
       </c>
       <c r="S19">
-        <v>3.833380718316163E-05</v>
+        <v>6.696980108863065E-05</v>
       </c>
       <c r="T19">
-        <v>3.833380718316164E-05</v>
+        <v>6.696980108863067E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.235963</v>
+        <v>1.269506</v>
       </c>
       <c r="H20">
-        <v>6.707889</v>
+        <v>3.808518</v>
       </c>
       <c r="I20">
-        <v>0.1009867933946438</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="J20">
-        <v>0.1009867933946438</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.07487966666666666</v>
+        <v>0.05343666666666667</v>
       </c>
       <c r="N20">
-        <v>0.224639</v>
+        <v>0.16031</v>
       </c>
       <c r="O20">
-        <v>0.0008920984490300634</v>
+        <v>0.0005685319780849309</v>
       </c>
       <c r="P20">
-        <v>0.0008920984490300636</v>
+        <v>0.000568531978084931</v>
       </c>
       <c r="Q20">
-        <v>0.167428164119</v>
+        <v>0.06783816895333333</v>
       </c>
       <c r="R20">
-        <v>1.506853477071</v>
+        <v>0.6105435205800001</v>
       </c>
       <c r="S20">
-        <v>9.009016175988121E-05</v>
+        <v>3.69677969392499E-05</v>
       </c>
       <c r="T20">
-        <v>9.009016175988122E-05</v>
+        <v>3.69677969392499E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.235963</v>
+        <v>1.269506</v>
       </c>
       <c r="H21">
-        <v>6.707889</v>
+        <v>3.808518</v>
       </c>
       <c r="I21">
-        <v>0.1009867933946438</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="J21">
-        <v>0.1009867933946438</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.06078666666666666</v>
+        <v>0.050611</v>
       </c>
       <c r="N21">
-        <v>0.18236</v>
+        <v>0.151833</v>
       </c>
       <c r="O21">
-        <v>0.0007241978158962707</v>
+        <v>0.0005384686908400556</v>
       </c>
       <c r="P21">
-        <v>0.0007241978158962709</v>
+        <v>0.0005384686908400557</v>
       </c>
       <c r="Q21">
-        <v>0.13591673756</v>
+        <v>0.064250968166</v>
       </c>
       <c r="R21">
-        <v>1.22325063804</v>
+        <v>0.5782587134939999</v>
       </c>
       <c r="S21">
-        <v>7.313441521076899E-05</v>
+        <v>3.501298429715632E-05</v>
       </c>
       <c r="T21">
-        <v>7.313441521076901E-05</v>
+        <v>3.501298429715632E-05</v>
       </c>
     </row>
   </sheetData>
